--- a/biology/Médecine/Karl_Heinrich_Bauer/Karl_Heinrich_Bauer.xlsx
+++ b/biology/Médecine/Karl_Heinrich_Bauer/Karl_Heinrich_Bauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Heinrich Bauer (né le 26 septembre 1890 à Schwarzdorf près de Mitwitz en Haute-Franconie et mort le 7 juillet 1978 à Heidelberg) est un chirurgien et oncologiste allemand, premier recteur de l'université de Heidelberg à sa réouverture après la Deuxième Guerre mondiale et l'un des fondateurs du Centre allemand de recherche sur le cancer (DKFZ)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Heinrich Bauer (né le 26 septembre 1890 à Schwarzdorf près de Mitwitz en Haute-Franconie et mort le 7 juillet 1978 à Heidelberg) est un chirurgien et oncologiste allemand, premier recteur de l'université de Heidelberg à sa réouverture après la Deuxième Guerre mondiale et l'un des fondateurs du Centre allemand de recherche sur le cancer (DKFZ).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bauer est professeur de chirurgie à l'université de Heidelberg de 1943 à 1962[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bauer est professeur de chirurgie à l'université de Heidelberg de 1943 à 1962.
 </t>
         </is>
       </c>
